--- a/log_file.xlsx
+++ b/log_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Event Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>13-12-2024 16:48:21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NO EVENTS YET</t>
+          <t>VOLUME CHANGED TO 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:48:21</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SONG CHANGED TO Medical Shop Problems 💊 | Ft. Adhithi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:48:21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SONG IS STOPPED</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:48:21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No call is detected</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:52:17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VOLUME CHANGED TO 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:52:17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SONG CHANGED TO Test5.Mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:52:17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SONG IS PAUSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:53:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VOLUME CHANGED TO 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:54:26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SONG IS PLAYING</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13-12-2024 16:54:29</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SONG IS PAUSED</t>
         </is>
       </c>
     </row>
